--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_18-45.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_18-45.xlsx
@@ -209,6 +209,9 @@
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -375,6 +378,9 @@
   </si>
   <si>
     <t>فازلين مستورد 50مل</t>
+  </si>
+  <si>
+    <t>فرشه اسنان SENSODYNE</t>
   </si>
   <si>
     <t>قصافات كبار لوكس</t>
@@ -1988,13 +1994,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -2014,17 +2020,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2032,7 +2038,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2040,17 +2046,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2058,7 +2064,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2066,17 +2072,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>27.329999999999998</v>
+        <v>32</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2092,13 +2098,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>0</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2118,17 +2124,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2144,13 +2150,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>247</v>
+        <v>277.5</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2170,13 +2176,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2202,7 +2208,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2222,17 +2228,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2240,7 +2246,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2248,7 +2254,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
@@ -2258,7 +2264,7 @@
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2274,17 +2280,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2300,13 +2306,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>240</v>
+        <v>24</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2326,17 +2332,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2344,7 +2350,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2352,17 +2358,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2378,17 +2384,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2396,7 +2402,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2404,17 +2410,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2430,17 +2436,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2456,17 +2462,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2482,13 +2488,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2508,17 +2514,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>56.399999999999999</v>
+        <v>30</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2526,7 +2532,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2534,13 +2540,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>23</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2560,17 +2566,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2586,17 +2592,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2612,17 +2618,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>65.75</v>
+        <v>31</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2644,7 +2650,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>140</v>
+        <v>65.75</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2670,7 +2676,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>249.47999999999999</v>
+        <v>140</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2696,7 +2702,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>59</v>
+        <v>249.47999999999999</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2716,17 +2722,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2742,17 +2748,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2768,17 +2774,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2800,7 +2806,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2820,17 +2826,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2846,17 +2852,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2872,17 +2878,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2898,13 +2904,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>2.5</v>
+        <v>35</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2916,7 +2922,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2924,13 +2930,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>34</v>
+        <v>2.5</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2956,11 +2962,11 @@
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2976,17 +2982,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3002,17 +3008,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3028,13 +3034,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>58.200000000000003</v>
+        <v>25</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3046,7 +3052,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3054,17 +3060,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>18</v>
+        <v>58.200000000000003</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3072,7 +3078,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3080,17 +3086,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>58</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3098,7 +3104,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3106,17 +3112,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3124,7 +3130,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3132,13 +3138,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3158,13 +3164,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3184,13 +3190,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3202,7 +3208,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3210,13 +3216,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3228,7 +3234,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3236,13 +3242,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>19.199999999999999</v>
+        <v>20</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3268,7 +3274,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3288,13 +3294,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>8</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3306,7 +3312,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3314,13 +3320,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3332,7 +3338,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3340,13 +3346,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>8</v>
+        <v>131</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3366,51 +3372,103 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="K96" s="10">
-        <v>5781.3900000000003</v>
-      </c>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="11">
+    <row r="96" ht="24.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c t="s" r="B96" s="7">
         <v>133</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c t="s" r="F97" s="12">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c t="s" r="H96" s="8">
+        <v>8</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9">
+        <v>20</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c t="s" r="N96" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="6">
+        <v>94</v>
+      </c>
+      <c t="s" r="B97" s="7">
         <v>134</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13"/>
-      <c t="s" r="I97" s="14">
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c t="s" r="H97" s="8">
+        <v>58</v>
+      </c>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="9">
+        <v>30</v>
+      </c>
+      <c r="M97" s="9"/>
+      <c t="s" r="N97" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" ht="25.5" customHeight="1">
+      <c r="K98" s="10">
+        <v>5898.3900000000003</v>
+      </c>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+    </row>
+    <row r="99" ht="17.25" customHeight="1">
+      <c t="s" r="A99" s="11">
         <v>135</v>
       </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c t="s" r="F99" s="12">
+        <v>136</v>
+      </c>
+      <c r="G99" s="12"/>
+      <c r="H99" s="13"/>
+      <c t="s" r="I99" s="14">
+        <v>137</v>
+      </c>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="293">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3694,10 +3752,16 @@
     <mergeCell ref="B95:G95"/>
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="K98:N98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:N99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
